--- a/__repository/template_export/template-export-boqform.xlsx
+++ b/__repository/template_export/template-export-boqform.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__www\public_codeigniter\nokia_poin\__repository\template_export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nokia\__repository\template_export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,18 +36,6 @@
     <t>Region</t>
   </si>
   <si>
-    <t>Site ID</t>
-  </si>
-  <si>
-    <t>Site Name</t>
-  </si>
-  <si>
-    <t>Site ID Mapping</t>
-  </si>
-  <si>
-    <t>Site Name Mapping</t>
-  </si>
-  <si>
     <t>SOW</t>
   </si>
   <si>
@@ -85,6 +73,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Site ID Actual</t>
+  </si>
+  <si>
+    <t>Site Name Actual</t>
+  </si>
+  <si>
+    <t>Site ID PO</t>
+  </si>
+  <si>
+    <t>Site Name PO</t>
   </si>
 </sst>
 </file>
@@ -160,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -249,8 +249,25 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -383,9 +400,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -425,14 +439,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,7 +833,7 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -891,7 +908,7 @@
       <c r="E5" s="20"/>
       <c r="F5" s="21"/>
       <c r="G5" s="10" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="12"/>
@@ -905,7 +922,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="21"/>
       <c r="G6" s="10" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
@@ -913,13 +930,13 @@
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="10" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="12"/>
@@ -927,13 +944,13 @@
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="10" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="12"/>
@@ -947,7 +964,7 @@
       <c r="E9" s="23"/>
       <c r="F9" s="24"/>
       <c r="G9" s="10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="12"/>
@@ -960,7 +977,7 @@
       <c r="E10" s="26"/>
       <c r="F10" s="27"/>
       <c r="G10" s="10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="12"/>
@@ -973,7 +990,7 @@
       <c r="E11" s="29"/>
       <c r="F11" s="30"/>
       <c r="G11" s="10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H11" s="31"/>
       <c r="I11" s="32"/>
@@ -981,23 +998,23 @@
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="G12" s="57" t="s">
         <v>12</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="58" t="s">
-        <v>16</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="36"/>
@@ -1005,507 +1022,507 @@
     </row>
     <row r="13" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="45" t="s">
-        <v>19</v>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="61" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="38"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
-      <c r="J35" s="46"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
     </row>
     <row r="40" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="38"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
     </row>
     <row r="41" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="50"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
     </row>
     <row r="42" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
     </row>
     <row r="43" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
     </row>
     <row r="44" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
     </row>
     <row r="45" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="46"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="49"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -1514,34 +1531,34 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C58" s="44"/>
       <c r="H58" s="44"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C63" s="44"/>
       <c r="H63" s="44"/>
@@ -1560,7 +1577,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
